--- a/biology/Zoologie/Arvicanthis/Arvicanthis.xlsx
+++ b/biology/Zoologie/Arvicanthis/Arvicanthis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Arvicanthis comprend des rongeurs de la famille des Muridés. Ce sont des espèces de rats des champs endémiques d'Afrique.
-Synonyme : Isomys[1].                           
+Synonyme : Isomys.                           
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce genre comprend les espèces suivantes selon Mammal Species of the World :
 Arvicanthis abyssinicus (en) (Rüppell, 1842)
@@ -520,9 +534,9 @@
 Arvicanthis blicki (en) Frick, 1914
 Arvicanthis nairobae (en) J. A. Allen, 1909
 Arvicanthis neumanni (en) (Matschie, 1894)
-Arvicanthis niloticus (Desmarest, 1822) - rat roussard ou rat du Nil[2], le plus connu du genre.
+Arvicanthis niloticus (Desmarest, 1822) - rat roussard ou rat du Nil, le plus connu du genre.
 Arvicanthis rufinus (en) Temminck, 1853
-Et la classification phylogénétique ajoute aussi[3] :
+Et la classification phylogénétique ajoute aussi :
 Arvicanthis dembeensis (Rüppell, 1842) synonyme de Arvicanthis niloticus (Desmarest, 1822) pour MSW
 Arvicanthis somalicus Thomas, 1903  synonyme de Arvicanthis neumanni (Matschie, 1894) pour MSW
 Arvicanthis sp. Koumbala
